--- a/analysis/mails_01/P08_6/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_6/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,6 +63,12 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4118</t>
+  </si>
+  <si>
     <t xml:space="preserve">natural_soil</t>
   </si>
   <si>
@@ -90,319 +96,901 @@
     <t xml:space="preserve">MFD05761</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9528</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05762</t>
   </si>
   <si>
+    <t xml:space="preserve">56.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8562</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05764</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.337</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05766</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9251</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05787</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8426</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05790</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9583</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05791</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8238</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05793</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8393</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05795</t>
   </si>
   <si>
+    <t xml:space="preserve">56.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8262</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05796</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8252</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05797</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9434</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05798</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8638</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05801</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8549</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05802</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.947</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05803</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8885</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05804</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9192</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05811</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9536</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05812</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8173</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05826</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8524</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05830</t>
   </si>
   <si>
+    <t xml:space="preserve">56.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9242</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05832</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9191</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05841</t>
   </si>
   <si>
+    <t xml:space="preserve">56.891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9156</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05851</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9552</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05853</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4091</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05861</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.945</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05867</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8631</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05869</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8287</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05871</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9231</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05872</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9216</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05874</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9239</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05877</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8423</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05887</t>
   </si>
   <si>
+    <t xml:space="preserve">56.805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8444</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05890</t>
   </si>
   <si>
+    <t xml:space="preserve">56.855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8643</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD05896</t>
   </si>
   <si>
+    <t xml:space="preserve">56.8896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9212</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10719</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1923</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10724</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9512</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10727</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9609</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10730</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3461</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10733</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9557</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10736</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9465</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10739</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9426</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10740</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5473</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10741</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9466</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10748</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9505</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10753</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9497</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10754</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.406</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10757</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3172</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10759</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3503</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10760</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2009</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10762</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9442</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10763</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4112</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10764</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3304</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10769</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4072</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10770</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.528</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10772</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1955</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10773</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3147</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10775</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.342</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10776</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9457</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10779</t>
   </si>
   <si>
+    <t xml:space="preserve">57.138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3089</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10780</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4026</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10781</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3305</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10782</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4163</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10784</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2013</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10786</t>
   </si>
   <si>
+    <t xml:space="preserve">8.9513</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10787</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4049</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10789</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.574</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10790</t>
   </si>
   <si>
+    <t xml:space="preserve">56.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4991</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10791</t>
   </si>
   <si>
+    <t xml:space="preserve">59.843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3567</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10799</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3953</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10800</t>
   </si>
   <si>
+    <t xml:space="preserve">9.3329</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10802</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3197</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10804</t>
   </si>
   <si>
+    <t xml:space="preserve">57.146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3437</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10805</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3412</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10808</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10810</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3445</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10814</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3346</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10816</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1946</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10818</t>
   </si>
   <si>
+    <t xml:space="preserve">9.3288</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10825</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5644</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10829</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3338</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10833</t>
   </si>
   <si>
+    <t xml:space="preserve">9.3073</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10835</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5238</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10838</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1384</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10841</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5205</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10844</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5553</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10850</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1433</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10855</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3529</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10856</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3254</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10860</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5962</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10861</t>
   </si>
   <si>
+    <t xml:space="preserve">9.3421</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10862</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3164</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10863</t>
   </si>
   <si>
+    <t xml:space="preserve">57.147</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10872</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3247</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10881</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3263</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10884</t>
   </si>
   <si>
+    <t xml:space="preserve">57.151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3289</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10886</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1434</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10889</t>
   </si>
   <si>
+    <t xml:space="preserve">9.3313</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10897</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5103</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10899</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3221</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10900</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3428</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10901</t>
   </si>
   <si>
+    <t xml:space="preserve">9.3362</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10902</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5219</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10903</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5296</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10908</t>
   </si>
   <si>
+    <t xml:space="preserve">57.1389</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10910</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5433</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD10916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3297</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -852,4276 +1440,4276 @@
         <v>15</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>55.2231</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.4118</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="n">
-        <v>55.1928</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.9528</v>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" t="n">
-        <v>56.85</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.8562</v>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="n">
-        <v>57.1402</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.337</v>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" t="n">
-        <v>56.8865</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.9251</v>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" t="n">
-        <v>56.8477</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.8426</v>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" t="n">
-        <v>55.2117</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.9583</v>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="n">
-        <v>56.8096</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.8238</v>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" t="n">
-        <v>56.4784</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.8393</v>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" t="n">
-        <v>56.82</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.8262</v>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" t="n">
-        <v>56.8273</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.8252</v>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" t="n">
-        <v>55.1973</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.9434</v>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" t="n">
-        <v>56.8482</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.8638</v>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" t="n">
-        <v>56.8107</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.8549</v>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" t="n">
-        <v>55.2025</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.947</v>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="n">
-        <v>56.8885</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.9251</v>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" t="n">
-        <v>56.8872</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.9192</v>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" t="n">
-        <v>55.2099</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8.9536</v>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" t="n">
-        <v>56.8371</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.8173</v>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" t="n">
-        <v>56.8437</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.8524</v>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" t="n">
-        <v>56.89</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.9242</v>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="n">
-        <v>56.8911</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9.9191</v>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" t="n">
-        <v>56.891</v>
-      </c>
-      <c r="E24" t="n">
-        <v>9.9156</v>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" t="n">
-        <v>55.1982</v>
-      </c>
-      <c r="E25" t="n">
-        <v>8.9552</v>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" t="n">
-        <v>55.2226</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.4091</v>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" t="n">
-        <v>55.2086</v>
-      </c>
-      <c r="E27" t="n">
-        <v>8.945</v>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" t="n">
-        <v>56.8077</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9.8631</v>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" t="n">
-        <v>56.8109</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.8287</v>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" t="n">
-        <v>56.8875</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9.9231</v>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" t="n">
-        <v>56.8863</v>
-      </c>
-      <c r="E31" t="n">
-        <v>9.9216</v>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" t="n">
-        <v>56.8845</v>
-      </c>
-      <c r="E32" t="n">
-        <v>9.9239</v>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" t="n">
-        <v>56.8165</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9.8423</v>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" t="n">
-        <v>56.805</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9.8444</v>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" t="n">
-        <v>56.855</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9.8643</v>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" t="n">
-        <v>56.8896</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9.9212</v>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" t="n">
-        <v>55.1923</v>
-      </c>
-      <c r="E37" t="n">
-        <v>8.9552</v>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" t="n">
-        <v>55.1977</v>
-      </c>
-      <c r="E38" t="n">
-        <v>8.9512</v>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" t="n">
-        <v>55.1959</v>
-      </c>
-      <c r="E39" t="n">
-        <v>8.9609</v>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" t="n">
-        <v>57.1415</v>
-      </c>
-      <c r="E40" t="n">
-        <v>9.3461</v>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" t="n">
-        <v>55.2083</v>
-      </c>
-      <c r="E41" t="n">
-        <v>8.9557</v>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" t="n">
-        <v>55.1986</v>
-      </c>
-      <c r="E42" t="n">
-        <v>8.9465</v>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>143</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" t="n">
-        <v>55.1991</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8.9426</v>
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" t="n">
-        <v>56.1526</v>
-      </c>
-      <c r="E44" t="n">
-        <v>9.5473</v>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" t="n">
-        <v>55.1865</v>
-      </c>
-      <c r="E45" t="n">
-        <v>8.9466</v>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" t="n">
-        <v>55.1941</v>
-      </c>
-      <c r="E46" t="n">
-        <v>8.9505</v>
+      <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" t="n">
-        <v>55.2031</v>
-      </c>
-      <c r="E47" t="n">
-        <v>8.9497</v>
+      <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" t="s">
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" t="n">
-        <v>55.2185</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9.406</v>
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" t="s">
+        <v>161</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" t="n">
-        <v>57.1416</v>
-      </c>
-      <c r="E49" t="n">
-        <v>9.3172</v>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>164</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" t="n">
-        <v>57.1483</v>
-      </c>
-      <c r="E50" t="n">
-        <v>9.3503</v>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" t="n">
-        <v>55.2009</v>
-      </c>
-      <c r="E51" t="n">
-        <v>8.9426</v>
+      <c r="D51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" t="n">
-        <v>55.2022</v>
-      </c>
-      <c r="E52" t="n">
-        <v>8.9442</v>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" t="n">
-        <v>55.2126</v>
-      </c>
-      <c r="E53" t="n">
-        <v>9.4112</v>
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" t="n">
-        <v>57.1362</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9.3304</v>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" t="n">
-        <v>55.2141</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.4072</v>
+      <c r="D55" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" t="s">
+        <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" t="n">
-        <v>56.1363</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9.528</v>
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" t="s">
+        <v>184</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" t="n">
-        <v>55.1955</v>
-      </c>
-      <c r="E57" t="n">
-        <v>8.9465</v>
+      <c r="D57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" t="s">
+        <v>143</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" t="n">
-        <v>57.1358</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9.3147</v>
+      <c r="D58" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" t="s">
+        <v>189</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" t="n">
-        <v>57.1371</v>
-      </c>
-      <c r="E59" t="n">
-        <v>9.342</v>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" t="s">
+        <v>192</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" t="n">
-        <v>55.2004</v>
-      </c>
-      <c r="E60" t="n">
-        <v>8.9457</v>
+      <c r="D60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" t="s">
+        <v>195</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" t="n">
-        <v>57.138</v>
-      </c>
-      <c r="E61" t="n">
-        <v>9.3089</v>
+      <c r="D61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" t="s">
+        <v>198</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" t="n">
-        <v>55.2225</v>
-      </c>
-      <c r="E62" t="n">
-        <v>9.4026</v>
+      <c r="D62" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" t="s">
+        <v>201</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" t="n">
-        <v>57.1474</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9.3305</v>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E63" t="s">
+        <v>204</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" t="n">
-        <v>55.2268</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9.4163</v>
+      <c r="D64" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" t="s">
+        <v>207</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" t="n">
-        <v>55.2013</v>
-      </c>
-      <c r="E65" t="n">
-        <v>8.9497</v>
+      <c r="D65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>158</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" t="n">
-        <v>55.1941</v>
-      </c>
-      <c r="E66" t="n">
-        <v>8.9513</v>
+      <c r="D66" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" t="s">
+        <v>211</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" t="n">
-        <v>55.2092</v>
-      </c>
-      <c r="E67" t="n">
-        <v>9.4049</v>
+      <c r="D67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" t="s">
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" t="n">
-        <v>56.1673</v>
-      </c>
-      <c r="E68" t="n">
-        <v>9.574</v>
+      <c r="D68" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" t="s">
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" t="n">
-        <v>56.132</v>
-      </c>
-      <c r="E69" t="n">
-        <v>9.4991</v>
+      <c r="D69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" t="s">
+        <v>220</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" t="n">
-        <v>59.843</v>
-      </c>
-      <c r="E70" t="n">
-        <v>9.3567</v>
+      <c r="D70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" t="s">
+        <v>223</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" t="n">
-        <v>55.2149</v>
-      </c>
-      <c r="E71" t="n">
-        <v>9.3953</v>
+      <c r="D71" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" t="s">
+        <v>226</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" t="n">
-        <v>57.1416</v>
-      </c>
-      <c r="E72" t="n">
-        <v>9.3329</v>
+      <c r="D72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" t="s">
+        <v>228</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" t="n">
-        <v>57.1367</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9.3197</v>
+      <c r="D73" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" t="s">
+        <v>231</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" t="n">
-        <v>57.146</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9.3437</v>
+      <c r="D74" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" t="s">
+        <v>234</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" t="n">
-        <v>57.1452</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9.3412</v>
+      <c r="D75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" t="s">
+        <v>237</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" t="n">
-        <v>56.1659</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9.57</v>
+      <c r="D76" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" t="s">
+        <v>240</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" t="n">
-        <v>57.1393</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9.3445</v>
+      <c r="D77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" t="s">
+        <v>243</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" t="n">
-        <v>57.1488</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9.3346</v>
+      <c r="D78" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" t="s">
+        <v>246</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" t="n">
-        <v>55.1946</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8.9528</v>
+      <c r="D79" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" t="n">
-        <v>57.1416</v>
-      </c>
-      <c r="E80" t="n">
-        <v>9.3288</v>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" t="s">
+        <v>250</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M80" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" t="n">
-        <v>56.1527</v>
-      </c>
-      <c r="E81" t="n">
-        <v>9.5644</v>
+      <c r="D81" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" t="s">
+        <v>253</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" t="n">
-        <v>57.1443</v>
-      </c>
-      <c r="E82" t="n">
-        <v>9.3338</v>
+      <c r="D82" t="s">
+        <v>255</v>
+      </c>
+      <c r="E82" t="s">
+        <v>256</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" t="n">
-        <v>57.1416</v>
-      </c>
-      <c r="E83" t="n">
-        <v>9.3073</v>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" t="s">
+        <v>258</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N83" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" t="n">
-        <v>56.1405</v>
-      </c>
-      <c r="E84" t="n">
-        <v>9.5238</v>
+      <c r="D84" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" t="s">
+        <v>261</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N84" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" t="n">
-        <v>57.1384</v>
-      </c>
-      <c r="E85" t="n">
-        <v>9.3304</v>
+      <c r="D85" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" t="s">
+        <v>178</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" t="n">
-        <v>56.1426</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9.5205</v>
+      <c r="D86" t="s">
+        <v>265</v>
+      </c>
+      <c r="E86" t="s">
+        <v>266</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N86" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" t="n">
-        <v>56.1543</v>
-      </c>
-      <c r="E87" t="n">
-        <v>9.5553</v>
+      <c r="D87" t="s">
+        <v>268</v>
+      </c>
+      <c r="E87" t="s">
+        <v>269</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" t="n">
-        <v>57.1433</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9.3445</v>
+      <c r="D88" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88" t="s">
+        <v>243</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" t="n">
-        <v>57.1493</v>
-      </c>
-      <c r="E89" t="n">
-        <v>9.3529</v>
+      <c r="D89" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" t="s">
+        <v>274</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N89" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" t="n">
-        <v>57.1349</v>
-      </c>
-      <c r="E90" t="n">
-        <v>9.3254</v>
+      <c r="D90" t="s">
+        <v>276</v>
+      </c>
+      <c r="E90" t="s">
+        <v>277</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" t="n">
-        <v>56.1558</v>
-      </c>
-      <c r="E91" t="n">
-        <v>9.5962</v>
+      <c r="D91" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" t="s">
+        <v>280</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" t="n">
-        <v>57.1474</v>
-      </c>
-      <c r="E92" t="n">
-        <v>9.3421</v>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" t="s">
+        <v>282</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" t="n">
-        <v>57.1394</v>
-      </c>
-      <c r="E93" t="n">
-        <v>9.3164</v>
+      <c r="D93" t="s">
+        <v>284</v>
+      </c>
+      <c r="E93" t="s">
+        <v>285</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L93" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M93" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N93" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" t="n">
-        <v>57.147</v>
-      </c>
-      <c r="E94" t="n">
-        <v>9.3346</v>
+      <c r="D94" t="s">
+        <v>287</v>
+      </c>
+      <c r="E94" t="s">
+        <v>246</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" t="n">
-        <v>57.1479</v>
-      </c>
-      <c r="E95" t="n">
-        <v>9.3247</v>
+      <c r="D95" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" t="s">
+        <v>290</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L95" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" t="n">
-        <v>57.1429</v>
-      </c>
-      <c r="E96" t="n">
-        <v>9.3263</v>
+      <c r="D96" t="s">
+        <v>292</v>
+      </c>
+      <c r="E96" t="s">
+        <v>293</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L96" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N96" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" t="n">
-        <v>57.151</v>
-      </c>
-      <c r="E97" t="n">
-        <v>9.3289</v>
+      <c r="D97" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" t="s">
+        <v>296</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J97" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L97" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N97" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" t="n">
-        <v>57.1434</v>
-      </c>
-      <c r="E98" t="n">
-        <v>9.3172</v>
+      <c r="D98" t="s">
+        <v>298</v>
+      </c>
+      <c r="E98" t="s">
+        <v>164</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N98" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" t="n">
-        <v>57.1402</v>
-      </c>
-      <c r="E99" t="n">
-        <v>9.3313</v>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>300</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N99" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" t="n">
-        <v>56.1285</v>
-      </c>
-      <c r="E100" t="n">
-        <v>9.5103</v>
+      <c r="D100" t="s">
+        <v>302</v>
+      </c>
+      <c r="E100" t="s">
+        <v>303</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M100" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N100" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" t="n">
-        <v>57.1385</v>
-      </c>
-      <c r="E101" t="n">
-        <v>9.3221</v>
+      <c r="D101" t="s">
+        <v>305</v>
+      </c>
+      <c r="E101" t="s">
+        <v>306</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J101" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N101" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" t="n">
-        <v>57.1411</v>
-      </c>
-      <c r="E102" t="n">
-        <v>9.3428</v>
+      <c r="D102" t="s">
+        <v>308</v>
+      </c>
+      <c r="E102" t="s">
+        <v>309</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J102" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K102" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M102" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N102" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>310</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" t="n">
-        <v>57.1371</v>
-      </c>
-      <c r="E103" t="n">
-        <v>9.3362</v>
+      <c r="D103" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" t="s">
+        <v>311</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K103" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N103" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" t="n">
-        <v>56.1262</v>
-      </c>
-      <c r="E104" t="n">
-        <v>9.5219</v>
+      <c r="D104" t="s">
+        <v>313</v>
+      </c>
+      <c r="E104" t="s">
+        <v>314</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M104" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N104" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" t="n">
-        <v>56.1465</v>
-      </c>
-      <c r="E105" t="n">
-        <v>9.5296</v>
+      <c r="D105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105" t="s">
+        <v>317</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J105" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K105" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M105" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N105" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" t="n">
-        <v>57.1389</v>
-      </c>
-      <c r="E106" t="n">
-        <v>9.3445</v>
+      <c r="D106" t="s">
+        <v>319</v>
+      </c>
+      <c r="E106" t="s">
+        <v>243</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J106" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K106" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N106" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" t="n">
-        <v>56.1553</v>
-      </c>
-      <c r="E107" t="n">
-        <v>9.5433</v>
+      <c r="D107" t="s">
+        <v>321</v>
+      </c>
+      <c r="E107" t="s">
+        <v>322</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K107" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M107" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N107" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" t="n">
-        <v>57.1501</v>
-      </c>
-      <c r="E108" t="n">
-        <v>9.3297</v>
+      <c r="D108" t="s">
+        <v>324</v>
+      </c>
+      <c r="E108" t="s">
+        <v>325</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L108" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M108" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N108" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5140,10 +5728,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
@@ -5151,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
@@ -5159,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
@@ -5167,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
@@ -5175,7 +5763,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
@@ -5183,7 +5771,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
@@ -5191,7 +5779,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
@@ -5199,7 +5787,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
@@ -5207,7 +5795,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10">
@@ -5215,7 +5803,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
@@ -5223,7 +5811,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12">
@@ -5231,7 +5819,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13">
@@ -5239,7 +5827,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14">
@@ -5247,7 +5835,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15">
@@ -5255,7 +5843,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_6/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_6/table_to_fill.xlsx
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Deciduous trees (løvtræer)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Natural - Untouched forrest</t>
+    <t xml:space="preserve"> Natural - Untouched forest</t>
   </si>
   <si>
     <t xml:space="preserve">MFD05761</t>
